--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.48732880997319</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H2">
-        <v>2.48732880997319</v>
+        <v>8.997716</v>
       </c>
       <c r="I2">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J2">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.3859284200861</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N2">
-        <v>32.3859284200861</v>
+        <v>97.698419</v>
       </c>
       <c r="O2">
-        <v>0.422429368074554</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P2">
-        <v>0.422429368074554</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q2">
-        <v>80.55445279700967</v>
+        <v>97.67362531233378</v>
       </c>
       <c r="R2">
-        <v>80.55445279700967</v>
+        <v>879.0626278110041</v>
       </c>
       <c r="S2">
-        <v>0.01047310782016201</v>
+        <v>0.01235787253286931</v>
       </c>
       <c r="T2">
-        <v>0.01047310782016201</v>
+        <v>0.0123578725328693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.48732880997319</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H3">
-        <v>2.48732880997319</v>
+        <v>8.997716</v>
       </c>
       <c r="I3">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J3">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5667109899196</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N3">
-        <v>40.5667109899196</v>
+        <v>122.56588</v>
       </c>
       <c r="O3">
-        <v>0.5291362923443786</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P3">
-        <v>0.5291362923443786</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q3">
-        <v>100.902748971083</v>
+        <v>122.5347755033422</v>
       </c>
       <c r="R3">
-        <v>100.902748971083</v>
+        <v>1102.81297953008</v>
       </c>
       <c r="S3">
-        <v>0.01311864624029975</v>
+        <v>0.01550335755094415</v>
       </c>
       <c r="T3">
-        <v>0.01311864624029975</v>
+        <v>0.01550335755094414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.48732880997319</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H4">
-        <v>2.48732880997319</v>
+        <v>8.997716</v>
       </c>
       <c r="I4">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J4">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0395147597941582</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N4">
-        <v>0.0395147597941582</v>
+        <v>0.113378</v>
       </c>
       <c r="O4">
-        <v>0.0005154150528879501</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P4">
-        <v>0.0005154150528879501</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q4">
-        <v>0.09828620045517998</v>
+        <v>0.1133492271831111</v>
       </c>
       <c r="R4">
-        <v>0.09828620045517998</v>
+        <v>1.020143044648</v>
       </c>
       <c r="S4">
-        <v>1.277846151093672E-05</v>
+        <v>1.434118265549063E-05</v>
       </c>
       <c r="T4">
-        <v>1.277846151093672E-05</v>
+        <v>1.434118265549062E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.48732880997319</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H5">
-        <v>2.48732880997319</v>
+        <v>8.997716</v>
       </c>
       <c r="I5">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J5">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.67374755881848</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N5">
-        <v>3.67374755881848</v>
+        <v>0.217205</v>
       </c>
       <c r="O5">
-        <v>0.04791892452817939</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P5">
-        <v>0.04791892452817939</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q5">
-        <v>9.137818143617881</v>
+        <v>0.2171498781977778</v>
       </c>
       <c r="R5">
-        <v>9.137818143617881</v>
+        <v>1.95434890378</v>
       </c>
       <c r="S5">
-        <v>0.00118803307993789</v>
+        <v>2.747425936853572E-05</v>
       </c>
       <c r="T5">
-        <v>0.00118803307993789</v>
+        <v>2.74742593685357E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>94.5057954414072</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H6">
-        <v>94.5057954414072</v>
+        <v>8.997716</v>
       </c>
       <c r="I6">
-        <v>0.9419909116346725</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J6">
-        <v>0.9419909116346725</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.3859284200861</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N6">
-        <v>32.3859284200861</v>
+        <v>11.81146</v>
       </c>
       <c r="O6">
-        <v>0.422429368074554</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P6">
-        <v>0.422429368074554</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q6">
-        <v>3060.657926448713</v>
+        <v>11.80846251392889</v>
       </c>
       <c r="R6">
-        <v>3060.657926448713</v>
+        <v>106.27616262536</v>
       </c>
       <c r="S6">
-        <v>0.3979246255338078</v>
+        <v>0.001494031516590709</v>
       </c>
       <c r="T6">
-        <v>0.3979246255338078</v>
+        <v>0.001494031516590708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.5057954414072</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H7">
-        <v>94.5057954414072</v>
+        <v>284.701828</v>
       </c>
       <c r="I7">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J7">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.5667109899196</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N7">
-        <v>40.5667109899196</v>
+        <v>97.698419</v>
       </c>
       <c r="O7">
-        <v>0.5291362923443786</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P7">
-        <v>0.5291362923443786</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q7">
-        <v>3833.789290544027</v>
+        <v>3090.546498001103</v>
       </c>
       <c r="R7">
-        <v>3833.789290544027</v>
+        <v>27814.91848200993</v>
       </c>
       <c r="S7">
-        <v>0.4984415784044718</v>
+        <v>0.3910224439512074</v>
       </c>
       <c r="T7">
-        <v>0.4984415784044718</v>
+        <v>0.3910224439512071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.5057954414072</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H8">
-        <v>94.5057954414072</v>
+        <v>284.701828</v>
       </c>
       <c r="I8">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J8">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0395147597941582</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N8">
-        <v>0.0395147597941582</v>
+        <v>122.56588</v>
       </c>
       <c r="O8">
-        <v>0.0005154150528879501</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P8">
-        <v>0.0005154150528879501</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q8">
-        <v>3.734373806023056</v>
+        <v>3877.192231825403</v>
       </c>
       <c r="R8">
-        <v>3.734373806023056</v>
+        <v>34894.73008642864</v>
       </c>
       <c r="S8">
-        <v>0.000485516295540153</v>
+        <v>0.4905505169191163</v>
       </c>
       <c r="T8">
-        <v>0.000485516295540153</v>
+        <v>0.4905505169191159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.5057954414072</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H9">
-        <v>94.5057954414072</v>
+        <v>284.701828</v>
       </c>
       <c r="I9">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J9">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.67374755881848</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N9">
-        <v>3.67374755881848</v>
+        <v>0.113378</v>
       </c>
       <c r="O9">
-        <v>0.04791892452817939</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P9">
-        <v>0.04791892452817939</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q9">
-        <v>347.1904352970683</v>
+        <v>3.586547094998221</v>
       </c>
       <c r="R9">
-        <v>347.1904352970683</v>
+        <v>32.27892385498399</v>
       </c>
       <c r="S9">
-        <v>0.04513919140085278</v>
+        <v>0.0004537774828300956</v>
       </c>
       <c r="T9">
-        <v>0.04513919140085278</v>
+        <v>0.0004537774828300953</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.33246729536576</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H10">
-        <v>3.33246729536576</v>
+        <v>284.701828</v>
       </c>
       <c r="I10">
-        <v>0.0332165227634169</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J10">
-        <v>0.0332165227634169</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.3859284200861</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N10">
-        <v>32.3859284200861</v>
+        <v>0.217205</v>
       </c>
       <c r="O10">
-        <v>0.422429368074554</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P10">
-        <v>0.422429368074554</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q10">
-        <v>107.9250472899934</v>
+        <v>6.870962283415554</v>
       </c>
       <c r="R10">
-        <v>107.9250472899934</v>
+        <v>61.83866055073999</v>
       </c>
       <c r="S10">
-        <v>0.01403163472058424</v>
+        <v>0.0008693286012992901</v>
       </c>
       <c r="T10">
-        <v>0.01403163472058424</v>
+        <v>0.0008693286012992896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.33246729536576</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H11">
-        <v>3.33246729536576</v>
+        <v>284.701828</v>
       </c>
       <c r="I11">
-        <v>0.0332165227634169</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J11">
-        <v>0.0332165227634169</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.5667109899196</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N11">
-        <v>40.5667109899196</v>
+        <v>11.81146</v>
       </c>
       <c r="O11">
-        <v>0.5291362923443786</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P11">
-        <v>0.5291362923443786</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q11">
-        <v>135.1872376544618</v>
+        <v>373.6382503720977</v>
       </c>
       <c r="R11">
-        <v>135.1872376544618</v>
+        <v>3362.74425334888</v>
       </c>
       <c r="S11">
-        <v>0.01757606769960707</v>
+        <v>0.0472734973923368</v>
       </c>
       <c r="T11">
-        <v>0.01757606769960707</v>
+        <v>0.04727349739233677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.33246729536576</v>
+        <v>0.234972</v>
       </c>
       <c r="H12">
-        <v>3.33246729536576</v>
+        <v>0.704916</v>
       </c>
       <c r="I12">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083142</v>
       </c>
       <c r="J12">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083141</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0395147597941582</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N12">
-        <v>0.0395147597941582</v>
+        <v>97.698419</v>
       </c>
       <c r="O12">
-        <v>0.0005154150528879501</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P12">
-        <v>0.0005154150528879501</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q12">
-        <v>0.1316816446982661</v>
+        <v>7.652130969755999</v>
       </c>
       <c r="R12">
-        <v>0.1316816446982661</v>
+        <v>68.869178727804</v>
       </c>
       <c r="S12">
-        <v>1.712029583686032E-05</v>
+        <v>0.0009681637066984667</v>
       </c>
       <c r="T12">
-        <v>1.712029583686032E-05</v>
+        <v>0.0009681637066984661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.234972</v>
+      </c>
+      <c r="H13">
+        <v>0.704916</v>
+      </c>
+      <c r="I13">
+        <v>0.002303081133083142</v>
+      </c>
+      <c r="J13">
+        <v>0.002303081133083141</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N13">
+        <v>122.56588</v>
+      </c>
+      <c r="O13">
+        <v>0.5273775188114274</v>
+      </c>
+      <c r="P13">
+        <v>0.5273775188114271</v>
+      </c>
+      <c r="Q13">
+        <v>9.599849985119999</v>
+      </c>
+      <c r="R13">
+        <v>86.39864986607999</v>
+      </c>
+      <c r="S13">
+        <v>0.001214593213586798</v>
+      </c>
+      <c r="T13">
+        <v>0.001214593213586797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.234972</v>
+      </c>
+      <c r="H14">
+        <v>0.704916</v>
+      </c>
+      <c r="I14">
+        <v>0.002303081133083142</v>
+      </c>
+      <c r="J14">
+        <v>0.002303081133083141</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03779266666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.113378</v>
+      </c>
+      <c r="O14">
+        <v>0.0004878438300104565</v>
+      </c>
+      <c r="P14">
+        <v>0.0004878438300104564</v>
+      </c>
+      <c r="Q14">
+        <v>0.008880218471999999</v>
+      </c>
+      <c r="R14">
+        <v>0.07992196624799999</v>
+      </c>
+      <c r="S14">
+        <v>1.123543920788102E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.123543920788101E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.234972</v>
+      </c>
+      <c r="H15">
+        <v>0.704916</v>
+      </c>
+      <c r="I15">
+        <v>0.002303081133083142</v>
+      </c>
+      <c r="J15">
+        <v>0.002303081133083141</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.07240166666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.217205</v>
+      </c>
+      <c r="O15">
+        <v>0.0009345915353721286</v>
+      </c>
+      <c r="P15">
+        <v>0.0009345915353721284</v>
+      </c>
+      <c r="Q15">
+        <v>0.01701236442</v>
+      </c>
+      <c r="R15">
+        <v>0.15311127978</v>
+      </c>
+      <c r="S15">
+        <v>2.152440132254755E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.152440132254753E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.234972</v>
+      </c>
+      <c r="H16">
+        <v>0.704916</v>
+      </c>
+      <c r="I16">
+        <v>0.002303081133083142</v>
+      </c>
+      <c r="J16">
+        <v>0.002303081133083141</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.937153333333333</v>
+      </c>
+      <c r="N16">
+        <v>11.81146</v>
+      </c>
+      <c r="O16">
+        <v>0.05082245130814891</v>
+      </c>
+      <c r="P16">
+        <v>0.05082245130814889</v>
+      </c>
+      <c r="Q16">
+        <v>0.9251207930399999</v>
+      </c>
+      <c r="R16">
+        <v>8.32608713736</v>
+      </c>
+      <c r="S16">
+        <v>0.0001170482287448344</v>
+      </c>
+      <c r="T16">
+        <v>0.0001170482287448343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1421</v>
+      </c>
+      <c r="H17">
+        <v>0.4263</v>
+      </c>
+      <c r="I17">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J17">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>32.56613966666666</v>
+      </c>
+      <c r="N17">
+        <v>97.698419</v>
+      </c>
+      <c r="O17">
+        <v>0.4203775945150413</v>
+      </c>
+      <c r="P17">
+        <v>0.4203775945150412</v>
+      </c>
+      <c r="Q17">
+        <v>4.627648446633333</v>
+      </c>
+      <c r="R17">
+        <v>41.6488360197</v>
+      </c>
+      <c r="S17">
+        <v>0.0005854998158157233</v>
+      </c>
+      <c r="T17">
+        <v>0.0005854998158157229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1421</v>
+      </c>
+      <c r="H18">
+        <v>0.4263</v>
+      </c>
+      <c r="I18">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J18">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N18">
+        <v>122.56588</v>
+      </c>
+      <c r="O18">
+        <v>0.5273775188114274</v>
+      </c>
+      <c r="P18">
+        <v>0.5273775188114271</v>
+      </c>
+      <c r="Q18">
+        <v>5.805537182666666</v>
+      </c>
+      <c r="R18">
+        <v>52.249834644</v>
+      </c>
+      <c r="S18">
+        <v>0.0007345287764103127</v>
+      </c>
+      <c r="T18">
+        <v>0.000734528776410312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.33246729536576</v>
-      </c>
-      <c r="H13">
-        <v>3.33246729536576</v>
-      </c>
-      <c r="I13">
-        <v>0.0332165227634169</v>
-      </c>
-      <c r="J13">
-        <v>0.0332165227634169</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.67374755881848</v>
-      </c>
-      <c r="N13">
-        <v>3.67374755881848</v>
-      </c>
-      <c r="O13">
-        <v>0.04791892452817939</v>
-      </c>
-      <c r="P13">
-        <v>0.04791892452817939</v>
-      </c>
-      <c r="Q13">
-        <v>12.24264359119238</v>
-      </c>
-      <c r="R13">
-        <v>12.24264359119238</v>
-      </c>
-      <c r="S13">
-        <v>0.001591700047388727</v>
-      </c>
-      <c r="T13">
-        <v>0.001591700047388727</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1421</v>
+      </c>
+      <c r="H19">
+        <v>0.4263</v>
+      </c>
+      <c r="I19">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J19">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03779266666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.113378</v>
+      </c>
+      <c r="O19">
+        <v>0.0004878438300104565</v>
+      </c>
+      <c r="P19">
+        <v>0.0004878438300104564</v>
+      </c>
+      <c r="Q19">
+        <v>0.005370337933333333</v>
+      </c>
+      <c r="R19">
+        <v>0.0483330414</v>
+      </c>
+      <c r="S19">
+        <v>6.794664519346529E-07</v>
+      </c>
+      <c r="T19">
+        <v>6.794664519346523E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1421</v>
+      </c>
+      <c r="H20">
+        <v>0.4263</v>
+      </c>
+      <c r="I20">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J20">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.07240166666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.217205</v>
+      </c>
+      <c r="O20">
+        <v>0.0009345915353721286</v>
+      </c>
+      <c r="P20">
+        <v>0.0009345915353721284</v>
+      </c>
+      <c r="Q20">
+        <v>0.01028827683333333</v>
+      </c>
+      <c r="R20">
+        <v>0.0925944915</v>
+      </c>
+      <c r="S20">
+        <v>1.301694426541889E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.301694426541888E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1421</v>
+      </c>
+      <c r="H21">
+        <v>0.4263</v>
+      </c>
+      <c r="I21">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J21">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.937153333333333</v>
+      </c>
+      <c r="N21">
+        <v>11.81146</v>
+      </c>
+      <c r="O21">
+        <v>0.05082245130814891</v>
+      </c>
+      <c r="P21">
+        <v>0.05082245130814889</v>
+      </c>
+      <c r="Q21">
+        <v>0.5594694886666667</v>
+      </c>
+      <c r="R21">
+        <v>5.035225398000001</v>
+      </c>
+      <c r="S21">
+        <v>7.078525656095605E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.0785256560956E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.748144</v>
+      </c>
+      <c r="H22">
+        <v>11.244432</v>
+      </c>
+      <c r="I22">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J22">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>32.56613966666666</v>
+      </c>
+      <c r="N22">
+        <v>97.698419</v>
+      </c>
+      <c r="O22">
+        <v>0.4203775945150413</v>
+      </c>
+      <c r="P22">
+        <v>0.4203775945150412</v>
+      </c>
+      <c r="Q22">
+        <v>122.0625809947787</v>
+      </c>
+      <c r="R22">
+        <v>1098.563228953008</v>
+      </c>
+      <c r="S22">
+        <v>0.01544361450845044</v>
+      </c>
+      <c r="T22">
+        <v>0.01544361450845043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.748144</v>
+      </c>
+      <c r="H23">
+        <v>11.244432</v>
+      </c>
+      <c r="I23">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J23">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N23">
+        <v>122.56588</v>
+      </c>
+      <c r="O23">
+        <v>0.5273775188114274</v>
+      </c>
+      <c r="P23">
+        <v>0.5273775188114271</v>
+      </c>
+      <c r="Q23">
+        <v>153.1315225755733</v>
+      </c>
+      <c r="R23">
+        <v>1378.18370318016</v>
+      </c>
+      <c r="S23">
+        <v>0.01937452235136984</v>
+      </c>
+      <c r="T23">
+        <v>0.01937452235136983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.748144</v>
+      </c>
+      <c r="H24">
+        <v>11.244432</v>
+      </c>
+      <c r="I24">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J24">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03779266666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.113378</v>
+      </c>
+      <c r="O24">
+        <v>0.0004878438300104565</v>
+      </c>
+      <c r="P24">
+        <v>0.0004878438300104564</v>
+      </c>
+      <c r="Q24">
+        <v>0.1416523568106667</v>
+      </c>
+      <c r="R24">
+        <v>1.274871211296</v>
+      </c>
+      <c r="S24">
+        <v>1.792215415214748E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.792215415214747E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.748144</v>
+      </c>
+      <c r="H25">
+        <v>11.244432</v>
+      </c>
+      <c r="I25">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J25">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.07240166666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.217205</v>
+      </c>
+      <c r="O25">
+        <v>0.0009345915353721286</v>
+      </c>
+      <c r="P25">
+        <v>0.0009345915353721284</v>
+      </c>
+      <c r="Q25">
+        <v>0.2713718725066666</v>
+      </c>
+      <c r="R25">
+        <v>2.44234685256</v>
+      </c>
+      <c r="S25">
+        <v>3.433454014550613E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.433454014550611E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.748144</v>
+      </c>
+      <c r="H26">
+        <v>11.244432</v>
+      </c>
+      <c r="I26">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J26">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.937153333333333</v>
+      </c>
+      <c r="N26">
+        <v>11.81146</v>
+      </c>
+      <c r="O26">
+        <v>0.05082245130814891</v>
+      </c>
+      <c r="P26">
+        <v>0.05082245130814889</v>
+      </c>
+      <c r="Q26">
+        <v>14.75701764341333</v>
+      </c>
+      <c r="R26">
+        <v>132.81315879072</v>
+      </c>
+      <c r="S26">
+        <v>0.001867088913915609</v>
+      </c>
+      <c r="T26">
+        <v>0.001867088913915608</v>
       </c>
     </row>
   </sheetData>
